--- a/electricity_records.xlsx
+++ b/electricity_records.xlsx
@@ -1,40 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new desktop_\devprojects\ElecBot\Elec-Bill-Check\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52ACA9A-76F9-4817-97A9-0D0C30021520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="768" yWindow="708" windowWidth="23040" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="电费记录" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="电费记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>剩余电量</t>
+  </si>
+  <si>
+    <t>查询时间</t>
+  </si>
+  <si>
+    <t>2024-04-15 17:32:47</t>
+  </si>
+  <si>
+    <t>2024-04-15 19:48:54</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:46:08</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:48:09</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:55:54</t>
+  </si>
+  <si>
+    <t>2024-04-16 11:56:17</t>
+  </si>
+  <si>
+    <t>2024-04-16 14:18:08</t>
+  </si>
+  <si>
+    <t>2024-04-16 15:18:10</t>
+  </si>
+  <si>
+    <t>2024-04-16 16:18:11</t>
+  </si>
+  <si>
+    <t>2024-04-16 17:18:13</t>
+  </si>
+  <si>
+    <t>2024-04-16 18:18:15</t>
+  </si>
+  <si>
+    <t>2024-04-16 19:18:17</t>
+  </si>
+  <si>
+    <t>2024-04-16 20:18:18</t>
+  </si>
+  <si>
+    <t>2024-04-16 21:18:20</t>
+  </si>
+  <si>
+    <t>2024-04-16 22:18:21</t>
+  </si>
+  <si>
+    <t>2024-04-17 22:34:58</t>
+  </si>
+  <si>
+    <t>2024-04-17 22:48:25</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,81 +120,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,80 +401,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="19.21875" customWidth="1" min="2" max="2"/>
-    <col width="14.21875" customWidth="1" min="3" max="3"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>剩余电量</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>查询时间</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>78.636276</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-04-15 17:32:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>78.636275999999995</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>45396.73111111111</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>79.385476</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45396.7334375</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>79.385476</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45397.73565972222</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B3" s="1">
+        <v>45396.731111111112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>79.385475999999997</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45396.733437499999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>79.385475999999997</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45397.735659722217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>78.068776</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-04-15 19:48:54</t>
-        </is>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>73.987576000000004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>73.987576000000004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>73.987576000000004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>73.987576000000004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>73.508775999999997</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>73.303576000000007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>73.109775999999997</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>72.898876000000001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>72.642375999999999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>72.385875999999996</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>72.129375999999993</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>71.821575999999993</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>71.462475999999995</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>71.143276</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45399.012754629628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>64.913176000000007</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>64.913176000000007</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>